--- a/download_excel/ms.xlsx
+++ b/download_excel/ms.xlsx
@@ -206,7 +206,7 @@
     <t>2021-05-01-2021-05-31</t>
   </si>
   <si>
-    <t>2021-06-05</t>
+    <t>2021-06-18</t>
   </si>
   <si>
     <t>2</t>
